--- a/wikipedia_validation_sheets/Juvenile dermatomyositis DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Juvenile dermatomyositis DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F4782DE3-D0DB-794B-853E-7CA637F3D533}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4824F9C1-77F7-974B-96F4-938A4885678B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="15440" xr2:uid="{04A3A5A6-59A2-4277-BCED-B043A47A043B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17620" windowHeight="7120" xr2:uid="{04A3A5A6-59A2-4277-BCED-B043A47A043B}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="107">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -285,12 +290,6 @@
     <t>FPCONTEXT</t>
   </si>
   <si>
-    <t>CALCINOSIS</t>
-  </si>
-  <si>
-    <t>CONTRACTURES</t>
-  </si>
-  <si>
     <t>FPREAL</t>
   </si>
   <si>
@@ -301,6 +300,57 @@
   </si>
   <si>
     <t>FN</t>
+  </si>
+  <si>
+    <t>infections</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>inflammation</t>
+  </si>
+  <si>
+    <t>Inflammation</t>
+  </si>
+  <si>
+    <t>contractures</t>
+  </si>
+  <si>
+    <t>Contracture</t>
+  </si>
+  <si>
+    <t>[acab]</t>
+  </si>
+  <si>
+    <t>calcinosis</t>
+  </si>
+  <si>
+    <t>Calcinosis</t>
+  </si>
+  <si>
+    <t>progression</t>
+  </si>
+  <si>
+    <t>Course of illness</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>Affect, NOS</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>allergies</t>
+  </si>
+  <si>
+    <t>Hypersensitivity</t>
   </si>
 </sst>
 </file>
@@ -657,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -707,27 +757,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,7 +813,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1095,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9A645F-34B6-45F9-9051-F117D19AAA8B}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1113,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="48" t="s">
+      <c r="C2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1464,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1725,7 +1774,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2105,124 +2154,329 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="29" t="b">
+      <c r="E37" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="F37" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25"/>
+      <c r="F37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="34" t="s">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="37" t="s">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="37" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="41" t="s">
-        <v>91</v>
-      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2231,8 +2485,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:C37">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="C5:C36">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C44">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
